--- a/GameDesign/HMtable/HeroStateTable.xlsx
+++ b/GameDesign/HMtable/HeroStateTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82104\OneDrive\바탕 화면\용사관리사\기획\테이블\테이블\최종 - 복사본\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82104\OneDrive\바탕 화면\용사관리사\기획\테이블\테이블\HMtable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918074DD-2BE8-4598-93AF-828B1247CFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF53D9F-CC9F-491B-846C-CF77E807CBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A351DB19-1A28-4970-B229-B0CB2947E421}"/>
+    <workbookView xWindow="2532" yWindow="876" windowWidth="16332" windowHeight="8964" xr2:uid="{A351DB19-1A28-4970-B229-B0CB2947E421}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -550,7 +550,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
